--- a/vowelRhymeCombosAndData/first14EndTwoVowelRhymingStimuliData.xlsx
+++ b/vowelRhymeCombosAndData/first14EndTwoVowelRhymingStimuliData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robbyice/Desktop/GTPortfolio/humdrumR/vowelRhymeCombosAndData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D8AF8A-74A4-E54C-8E17-69479704BD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133D3F7-60FD-364B-B096-51B391E06EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16880" xr2:uid="{0F9E2C7B-6048-3D43-87F5-983541AEA1C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0F9E2C7B-6048-3D43-87F5-983541AEA1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>V1</t>
   </si>
@@ -188,19 +188,34 @@
   </si>
   <si>
     <t>fIk</t>
+  </si>
+  <si>
+    <t> 0.0605</t>
+  </si>
+  <si>
+    <t>vowel probabilities</t>
+  </si>
+  <si>
+    <t>multiplied probabilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF55595C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,8 +238,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6DF33-3FBE-EA4C-8F86-F83917EC2D67}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,64 +591,109 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>6.2300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
         <v>21</v>
       </c>
@@ -640,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>22</v>
       </c>
@@ -648,7 +709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
         <v>24</v>
       </c>
@@ -656,7 +717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
         <v>26</v>
       </c>
@@ -664,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
         <v>28</v>
       </c>
@@ -672,7 +733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
         <v>29</v>
       </c>
@@ -680,7 +741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
         <v>31</v>
       </c>
@@ -688,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
         <v>32</v>
       </c>
@@ -696,7 +757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
         <v>34</v>
       </c>
@@ -704,7 +765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
         <v>22</v>
       </c>
@@ -712,7 +773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
         <v>24</v>
       </c>
@@ -720,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
         <v>36</v>
       </c>
@@ -728,7 +789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
         <v>37</v>
       </c>
@@ -736,7 +797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
         <v>22</v>
       </c>
@@ -744,7 +805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
         <v>40</v>
       </c>
@@ -752,7 +813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>42</v>
       </c>
@@ -760,7 +821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H25" t="s">
         <v>44</v>
       </c>
@@ -768,7 +829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>46</v>
       </c>
@@ -776,7 +837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
         <v>47</v>
       </c>
@@ -784,20 +845,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:10" ht="20" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>9</v>
       </c>
       <c r="I28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10" ht="20" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
         <v>9</v>
       </c>
       <c r="I29" t="s">
         <v>50</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
